--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1851860.694760322</v>
+        <v>1796908.805476225</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013176</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079585</v>
+        <v>11497228.11079584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7403718.705476525</v>
+        <v>7403718.705476526</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>355.713466882157</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>128.3200009876323</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>50.39752532067678</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>65.59641470936546</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>155.8614510880961</v>
       </c>
       <c r="I13" t="n">
-        <v>52.42857711587119</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>363.313707329458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>104.0024271027442</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>130.2646119085753</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>48.12983798195161</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.00010435294843</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>76.53519509961448</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>167.3492779030167</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>142.0125328254712</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>15.71916615484799</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>237.2267533518924</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -1991,7 +1991,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>80.39631948615262</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2101074720032413</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>207.0716324031976</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>129.4424787989584</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>38.44565182184095</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>33.14712542371397</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
@@ -2225,10 +2225,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>73.3534034990646</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>109.0694732726962</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>35.73043473151306</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6320838744866</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>90.22595344863068</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
@@ -2459,7 +2459,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="W25" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>218.5797582054722</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>27.24142637952423</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.1639724458418</v>
@@ -2614,16 +2614,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.329915919761908</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -2690,7 +2690,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2702,7 +2702,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>164.1296085990482</v>
       </c>
     </row>
     <row r="28">
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>75.61813689207861</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.1434003800101</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>73.59768962632154</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>204.7418097272723</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>185.1029651858426</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
@@ -2933,13 +2933,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>144.8407193933337</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.474840865017136</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>238.0565835020803</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.4660086744115</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3170,13 +3170,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>8.373183778873317</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>126.0920880582904</v>
       </c>
     </row>
     <row r="34">
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>129.4825785166959</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>50.0001043529486</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>331.2301254904634</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.216722594183226</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.8152585194326</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
@@ -3407,7 +3407,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>14.32501013152902</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.916258666857008</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>137.4545982671965</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>400.5813409780645</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>119.7132633034006</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.727105734424095</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886883</v>
+        <v>79.99132866338547</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3647,7 +3647,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>158.6107100818746</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.9625998440373</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
         <v>250.0353723969745</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>84.85727135152641</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>143.4660897532004</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -3836,7 +3836,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>80.84345120350704</v>
@@ -3875,19 +3875,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>74.063694560466</v>
       </c>
     </row>
     <row r="43">
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.1044229849742</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.89828378116018</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>269.0562111640181</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>119.353530844507</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>38.04813570318131</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>150.4997141969746</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
-        <v>137.4545982671966</v>
+        <v>149.8100015377239</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.2760455058778</v>
+        <v>750.7298767977416</v>
       </c>
       <c r="C11" t="n">
-        <v>988.2760455058778</v>
+        <v>750.7298767977416</v>
       </c>
       <c r="D11" t="n">
-        <v>988.2760455058778</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E11" t="n">
-        <v>628.9695133016788</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389726</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292787</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
@@ -5068,25 +5068,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722258</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722258</v>
+        <v>1136.876914594156</v>
       </c>
       <c r="W11" t="n">
-        <v>1374.423083302292</v>
+        <v>1136.876914594156</v>
       </c>
       <c r="X11" t="n">
-        <v>1374.423083302292</v>
+        <v>1136.876914594156</v>
       </c>
       <c r="Y11" t="n">
-        <v>988.2760455058778</v>
+        <v>750.7298767977416</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.1937644001405</v>
+        <v>354.1816136959936</v>
       </c>
       <c r="C12" t="n">
-        <v>421.7814901331042</v>
+        <v>354.1816136959936</v>
       </c>
       <c r="D12" t="n">
-        <v>261.0013738941359</v>
+        <v>354.1816136959936</v>
       </c>
       <c r="E12" t="n">
-        <v>261.0013738941359</v>
+        <v>354.1816136959936</v>
       </c>
       <c r="F12" t="n">
-        <v>100.57365761138</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G12" t="n">
-        <v>100.57365761138</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H12" t="n">
-        <v>100.57365761138</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676443</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207058</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S12" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U12" t="n">
-        <v>1234.878304775052</v>
+        <v>995.3051791025982</v>
       </c>
       <c r="V12" t="n">
-        <v>1234.878304775052</v>
+        <v>752.2254610062323</v>
       </c>
       <c r="W12" t="n">
-        <v>1234.878304775052</v>
+        <v>752.2254610062323</v>
       </c>
       <c r="X12" t="n">
-        <v>1015.370310391748</v>
+        <v>532.7174666229287</v>
       </c>
       <c r="Y12" t="n">
-        <v>789.7296173270756</v>
+        <v>532.7174666229287</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.27281155734536</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C13" t="n">
-        <v>87.27281155734536</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D13" t="n">
-        <v>87.27281155734536</v>
+        <v>334.857675380022</v>
       </c>
       <c r="E13" t="n">
-        <v>87.27281155734536</v>
+        <v>191.7504620343402</v>
       </c>
       <c r="F13" t="n">
-        <v>87.27281155734536</v>
+        <v>191.7504620343402</v>
       </c>
       <c r="G13" t="n">
-        <v>87.27281155734536</v>
+        <v>191.7504620343402</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27281155734536</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
         <v>34.31465285444516</v>
@@ -5202,7 +5202,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514571</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306432</v>
@@ -5235,16 +5235,16 @@
         <v>334.857675380022</v>
       </c>
       <c r="V13" t="n">
-        <v>87.27281155734536</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W13" t="n">
-        <v>87.27281155734536</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X13" t="n">
-        <v>87.27281155734536</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.27281155734536</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1050.584219631687</v>
+        <v>755.0411222591289</v>
       </c>
       <c r="C14" t="n">
-        <v>1050.584219631687</v>
+        <v>401.2981956114735</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.584219631687</v>
+        <v>401.2981956114735</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.584219631687</v>
+        <v>401.2981956114735</v>
       </c>
       <c r="F14" t="n">
-        <v>643.3122502983404</v>
+        <v>401.2981956114735</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
@@ -5314,16 +5314,16 @@
         <v>1519.054059427092</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.001102757653</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.001102757653</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="X14" t="n">
-        <v>1050.584219631687</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="Y14" t="n">
-        <v>1050.584219631687</v>
+        <v>1132.907021630678</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.4582728022987</v>
+        <v>767.1139614833585</v>
       </c>
       <c r="C15" t="n">
-        <v>339.4582728022987</v>
+        <v>577.7016872163222</v>
       </c>
       <c r="D15" t="n">
-        <v>207.8778567330307</v>
+        <v>416.9215709773539</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>243.3583670987684</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>82.93065081601245</v>
       </c>
       <c r="G15" t="n">
         <v>34.31465285444516</v>
@@ -5357,25 +5357,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.4093011102587</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443597</v>
+        <v>337.3144331656368</v>
       </c>
       <c r="M15" t="n">
-        <v>873.3058632974213</v>
+        <v>712.2060427186982</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520716</v>
+        <v>1115.439807218709</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1428.572841265603</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1657.813205638053</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
@@ -5384,25 +5384,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
-        <v>1536.658373288802</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288802</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.085247616349</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519983</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502747</v>
+        <v>992.7546545480308</v>
       </c>
       <c r="X15" t="n">
-        <v>565.0989658669711</v>
+        <v>992.7546545480308</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4582728022987</v>
+        <v>767.1139614833585</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="E16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="F16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="G16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="H16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="I16" t="n">
         <v>34.31465285444516</v>
@@ -5439,49 +5439,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800222</v>
+        <v>260.9755581809699</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800222</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="S16" t="n">
-        <v>334.8576753800222</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="T16" t="n">
-        <v>111.6229307328436</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="U16" t="n">
-        <v>111.6229307328436</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="V16" t="n">
-        <v>111.6229307328436</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="W16" t="n">
-        <v>111.6229307328436</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444516</v>
+        <v>84.81980876651429</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>745.1801749823653</v>
+        <v>798.0091879511906</v>
       </c>
       <c r="C17" t="n">
-        <v>745.1801749823653</v>
+        <v>798.0091879511906</v>
       </c>
       <c r="D17" t="n">
-        <v>745.1801749823653</v>
+        <v>628.9695133016787</v>
       </c>
       <c r="E17" t="n">
-        <v>369.9489506776823</v>
+        <v>628.9695133016787</v>
       </c>
       <c r="F17" t="n">
-        <v>369.9489506776823</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H17" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I17" t="n">
         <v>34.31465285444516</v>
@@ -5521,16 +5521,16 @@
         <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292773</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157782</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P17" t="n">
         <v>1650.639799716935</v>
@@ -5539,28 +5539,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S17" t="n">
-        <v>1519.054059427092</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T17" t="n">
-        <v>1519.054059427092</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="U17" t="n">
-        <v>1266.493077207926</v>
+        <v>1139.318747371157</v>
       </c>
       <c r="V17" t="n">
-        <v>1123.046074353914</v>
+        <v>1139.318747371157</v>
       </c>
       <c r="W17" t="n">
-        <v>1123.046074353914</v>
+        <v>798.0091879511906</v>
       </c>
       <c r="X17" t="n">
-        <v>1123.046074353914</v>
+        <v>798.0091879511906</v>
       </c>
       <c r="Y17" t="n">
-        <v>1123.046074353914</v>
+        <v>798.0091879511906</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.9915189529294</v>
+        <v>533.6236769809974</v>
       </c>
       <c r="C18" t="n">
-        <v>504.9915189529294</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="D18" t="n">
         <v>344.2114027139611</v>
@@ -5594,52 +5594,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>54.4093011102587</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L18" t="n">
-        <v>337.314433165637</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186985</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T18" t="n">
-        <v>1413.952574208507</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U18" t="n">
-        <v>1398.074628597549</v>
+        <v>1262.153223817739</v>
       </c>
       <c r="V18" t="n">
-        <v>1398.074628597549</v>
+        <v>1022.53024063401</v>
       </c>
       <c r="W18" t="n">
-        <v>1128.67605932784</v>
+        <v>753.131671364301</v>
       </c>
       <c r="X18" t="n">
-        <v>909.1680649445368</v>
+        <v>533.6236769809974</v>
       </c>
       <c r="Y18" t="n">
-        <v>683.5273718798644</v>
+        <v>533.6236769809974</v>
       </c>
     </row>
     <row r="19">
@@ -5676,49 +5676,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514573</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306433</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662945</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098957</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P19" t="n">
-        <v>334.8576753800222</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.9755581809702</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R19" t="n">
-        <v>260.9755581809702</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5268826241454</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.31465285444516</v>
+        <v>115.5230563758114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1204.385328156414</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="C20" t="n">
-        <v>1204.385328156414</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2013285178008</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="E20" t="n">
-        <v>863.2013285178008</v>
+        <v>1198.835626341038</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H20" t="n">
         <v>34.31465285444516</v>
@@ -5752,19 +5752,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K20" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193744</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389714</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292773</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
@@ -5776,28 +5776,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W20" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X20" t="n">
-        <v>1413.548593210149</v>
+        <v>1584.982664137452</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.548593210149</v>
+        <v>1198.835626341038</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.14864459367845</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="C21" t="n">
-        <v>73.14864459367845</v>
+        <v>472.4888869029434</v>
       </c>
       <c r="D21" t="n">
-        <v>34.31465285444516</v>
+        <v>472.4888869029434</v>
       </c>
       <c r="E21" t="n">
-        <v>34.31465285444516</v>
+        <v>298.9256830243578</v>
       </c>
       <c r="F21" t="n">
-        <v>34.31465285444516</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444516</v>
@@ -5858,25 +5858,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T21" t="n">
-        <v>1448.884598007117</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.311472334664</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V21" t="n">
-        <v>966.2317542382982</v>
+        <v>931.2997304396883</v>
       </c>
       <c r="W21" t="n">
-        <v>696.8331849685895</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="X21" t="n">
-        <v>477.3251905852859</v>
+        <v>661.9011611699797</v>
       </c>
       <c r="Y21" t="n">
-        <v>251.6844975206135</v>
+        <v>661.9011611699797</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416662</v>
       </c>
       <c r="D22" t="n">
         <v>34.31465285444516</v>
@@ -5937,25 +5937,25 @@
         <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4089998231973</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4089998231973</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>409.5458771591282</v>
+        <v>905.5007339593831</v>
       </c>
       <c r="C23" t="n">
-        <v>409.5458771591282</v>
+        <v>551.7578073117277</v>
       </c>
       <c r="D23" t="n">
-        <v>409.5458771591282</v>
+        <v>551.7578073117277</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444516</v>
+        <v>551.7578073117277</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>144.4858379783807</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>144.4858379783807</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444516</v>
+        <v>144.4858379783807</v>
       </c>
       <c r="I23" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K23" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292783</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
         <v>1650.639799716936</v>
@@ -6016,25 +6016,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U23" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V23" t="n">
-        <v>1159.109798081508</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W23" t="n">
-        <v>1159.109798081508</v>
+        <v>1268.917617085349</v>
       </c>
       <c r="X23" t="n">
-        <v>795.6929149555422</v>
+        <v>905.5007339593831</v>
       </c>
       <c r="Y23" t="n">
-        <v>409.5458771591282</v>
+        <v>905.5007339593831</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5472138633871</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="C24" t="n">
-        <v>153.1349395963508</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="D24" t="n">
-        <v>153.1349395963508</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="E24" t="n">
-        <v>153.1349395963508</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="F24" t="n">
-        <v>153.1349395963508</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444516</v>
+        <v>125.4519795702337</v>
       </c>
       <c r="H24" t="n">
         <v>34.31465285444516</v>
@@ -6068,52 +6068,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443596</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M24" t="n">
-        <v>873.3058632974212</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T24" t="n">
-        <v>1448.884598007117</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U24" t="n">
-        <v>1209.311472334664</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V24" t="n">
-        <v>966.2317542382982</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W24" t="n">
-        <v>966.2317542382982</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X24" t="n">
-        <v>746.7237598549946</v>
+        <v>351.0926726349061</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0830667903222</v>
+        <v>125.4519795702337</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
         <v>34.31465285444516</v>
@@ -6177,22 +6177,22 @@
         <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800221</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.1022874054272</v>
+        <v>858.6771757916865</v>
       </c>
       <c r="C26" t="n">
-        <v>255.1022874054272</v>
+        <v>858.6771757916865</v>
       </c>
       <c r="D26" t="n">
-        <v>255.1022874054272</v>
+        <v>858.6771757916865</v>
       </c>
       <c r="E26" t="n">
-        <v>255.1022874054272</v>
+        <v>483.4459514870035</v>
       </c>
       <c r="F26" t="n">
-        <v>255.1022874054272</v>
+        <v>483.4459514870035</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>61.8312451569949</v>
       </c>
       <c r="H26" t="n">
         <v>34.31465285444516</v>
@@ -6226,7 +6226,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K26" t="n">
         <v>253.8975067193751</v>
@@ -6235,7 +6235,7 @@
         <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
         <v>1186.279026157783</v>
@@ -6250,28 +6250,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U26" t="n">
-        <v>942.640164075991</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="V26" t="n">
-        <v>618.519170531393</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="W26" t="n">
-        <v>618.519170531393</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="X26" t="n">
-        <v>255.1022874054272</v>
+        <v>1244.824213588101</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.1022874054272</v>
+        <v>858.6771757916865</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.6782042885481</v>
+        <v>424.878314873977</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H27" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656369</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M27" t="n">
-        <v>712.2060427186984</v>
+        <v>692.111394462885</v>
       </c>
       <c r="N27" t="n">
-        <v>1115.43980721871</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.953100567611</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.193464940061</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025987</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062328</v>
+        <v>1079.572361960371</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365241</v>
+        <v>810.1737926906627</v>
       </c>
       <c r="X27" t="n">
-        <v>263.3188973532204</v>
+        <v>590.6657983073591</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.6782042885481</v>
+        <v>424.878314873977</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="I28" t="n">
         <v>34.31465285444516</v>
@@ -6408,28 +6408,28 @@
         <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7019259655665</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1150.856285470723</v>
+        <v>1098.923101630021</v>
       </c>
       <c r="C29" t="n">
-        <v>797.1133588230673</v>
+        <v>745.1801749823653</v>
       </c>
       <c r="D29" t="n">
-        <v>455.9293591844538</v>
+        <v>745.1801749823653</v>
       </c>
       <c r="E29" t="n">
-        <v>455.9293591844538</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F29" t="n">
-        <v>455.9293591844538</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H29" t="n">
         <v>34.31465285444516</v>
@@ -6463,22 +6463,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887603013</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
         <v>1650.639799716936</v>
@@ -6487,28 +6487,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505315</v>
+        <v>1641.39154208961</v>
       </c>
       <c r="S29" t="n">
-        <v>1610.227176505315</v>
+        <v>1641.39154208961</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.227176505315</v>
+        <v>1423.044095174619</v>
       </c>
       <c r="U29" t="n">
-        <v>1357.666194286149</v>
+        <v>1423.044095174619</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.856285470723</v>
+        <v>1098.923101630021</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.856285470723</v>
+        <v>1098.923101630021</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.856285470723</v>
+        <v>1098.923101630021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1150.856285470723</v>
+        <v>1098.923101630021</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.8778567330307</v>
+        <v>394.8505488399424</v>
       </c>
       <c r="C30" t="n">
         <v>207.8778567330307</v>
@@ -6557,37 +6557,37 @@
         <v>1095.345158962896</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.953100567611</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.193464940061</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U30" t="n">
-        <v>995.3051791025987</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V30" t="n">
-        <v>752.2254610062328</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W30" t="n">
-        <v>605.9217040432694</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="X30" t="n">
-        <v>386.4137096599658</v>
+        <v>620.4912419046148</v>
       </c>
       <c r="Y30" t="n">
-        <v>386.4137096599658</v>
+        <v>394.8505488399424</v>
       </c>
     </row>
     <row r="31">
@@ -6642,28 +6642,28 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W31" t="n">
-        <v>258.475718923377</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444516</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y31" t="n">
         <v>34.31465285444516</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444516</v>
+        <v>610.410146134329</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444516</v>
+        <v>610.410146134329</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444516</v>
+        <v>610.410146134329</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444516</v>
+        <v>610.410146134329</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H32" t="n">
         <v>34.31465285444516</v>
@@ -6700,16 +6700,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M32" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U32" t="n">
-        <v>942.640164075991</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V32" t="n">
-        <v>618.519170531393</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W32" t="n">
-        <v>277.2096111114265</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2096111114265</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444516</v>
+        <v>988.2760455058778</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>518.127006548759</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C33" t="n">
-        <v>518.127006548759</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3468903097908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E33" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F33" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G33" t="n">
         <v>34.31465285444516</v>
@@ -6779,52 +6779,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>304.6946924676439</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207055</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520717</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.953100567611</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025987</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062328</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W33" t="n">
-        <v>752.2254610062328</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X33" t="n">
-        <v>743.7676996134314</v>
+        <v>351.0926726349061</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.127006548759</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444516</v>
+        <v>165.105136204643</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444516</v>
+        <v>165.105136204643</v>
       </c>
       <c r="I34" t="n">
         <v>34.31465285444516</v>
@@ -6879,31 +6879,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>938.1127679116282</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="C35" t="n">
-        <v>938.1127679116282</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="D35" t="n">
-        <v>596.9287682730148</v>
+        <v>744.1217614929296</v>
       </c>
       <c r="E35" t="n">
-        <v>221.6975439683318</v>
+        <v>368.8905371882466</v>
       </c>
       <c r="F35" t="n">
-        <v>221.6975439683318</v>
+        <v>368.8905371882466</v>
       </c>
       <c r="G35" t="n">
-        <v>221.6975439683318</v>
+        <v>368.8905371882466</v>
       </c>
       <c r="H35" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719376</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389729</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292789</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427093</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T35" t="n">
-        <v>1519.054059427093</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U35" t="n">
-        <v>1266.493077207926</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V35" t="n">
-        <v>942.3720836633285</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W35" t="n">
-        <v>938.1127679116282</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X35" t="n">
-        <v>938.1127679116282</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y35" t="n">
-        <v>938.1127679116282</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>813.8951292517472</v>
+        <v>257.1861986718515</v>
       </c>
       <c r="C36" t="n">
-        <v>624.4828549847109</v>
+        <v>257.1861986718515</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7027387457426</v>
+        <v>257.1861986718515</v>
       </c>
       <c r="E36" t="n">
-        <v>463.7027387457426</v>
+        <v>83.62299479326597</v>
       </c>
       <c r="F36" t="n">
-        <v>303.2750224629867</v>
+        <v>83.62299479326597</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8059888862266</v>
+        <v>83.62299479326597</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444518</v>
+        <v>83.62299479326597</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
         <v>54.4093011102587</v>
       </c>
       <c r="K36" t="n">
-        <v>215.5091216889814</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="L36" t="n">
-        <v>498.4142537443596</v>
+        <v>337.314433165637</v>
       </c>
       <c r="M36" t="n">
-        <v>873.3058632974212</v>
+        <v>712.2060427186985</v>
       </c>
       <c r="N36" t="n">
-        <v>1276.539627797432</v>
+        <v>1115.43980721871</v>
       </c>
       <c r="O36" t="n">
-        <v>1589.672661844326</v>
+        <v>1428.572841265604</v>
       </c>
       <c r="P36" t="n">
-        <v>1625.193464940061</v>
+        <v>1657.813205638054</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288803</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288803</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U36" t="n">
-        <v>1297.08524761635</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V36" t="n">
-        <v>1054.005529519984</v>
+        <v>752.2254610062325</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.53582231642</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.53582231642</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="Y36" t="n">
-        <v>813.8951292517472</v>
+        <v>257.1861986718515</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C37" t="n">
-        <v>34.31465285444518</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="D37" t="n">
-        <v>34.31465285444518</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="E37" t="n">
-        <v>34.31465285444518</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F37" t="n">
-        <v>34.31465285444518</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G37" t="n">
-        <v>34.31465285444518</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H37" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
         <v>42.23041924514574</v>
@@ -7107,40 +7107,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O37" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P37" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q37" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R37" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S37" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T37" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U37" t="n">
-        <v>43.32097474015933</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V37" t="n">
-        <v>43.32097474015933</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W37" t="n">
-        <v>43.32097474015933</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X37" t="n">
-        <v>43.32097474015933</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.32097474015933</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.944255165456</v>
+        <v>846.2142393373523</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>846.2142393373523</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>846.2142393373523</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>846.2142393373523</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>438.9422700040053</v>
       </c>
       <c r="G38" t="n">
         <v>34.31465285444516</v>
@@ -7174,10 +7174,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K38" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L38" t="n">
         <v>525.528369138972</v>
@@ -7198,28 +7198,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.810154537005</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.810154537005</v>
+        <v>1224.080138708901</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>711.3040340828904</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C39" t="n">
-        <v>521.8917598158541</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D39" t="n">
-        <v>361.1116435768859</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E39" t="n">
-        <v>187.5484396983003</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F39" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G39" t="n">
         <v>34.31465285444516</v>
@@ -7259,46 +7259,46 @@
         <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443597</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M39" t="n">
-        <v>873.3058632974213</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440572</v>
+        <v>1634.933320840051</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440572</v>
+        <v>1420.927027607985</v>
       </c>
       <c r="U39" t="n">
-        <v>1627.958867440572</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V39" t="n">
-        <v>1384.879149344207</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W39" t="n">
-        <v>1115.480580074498</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.480580074498</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y39" t="n">
-        <v>889.8398870098256</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5636570076908</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
         <v>34.31465285444516</v>
@@ -7420,7 +7420,7 @@
         <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1610.227176505315</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U41" t="n">
-        <v>1357.666194286149</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V41" t="n">
-        <v>1357.666194286149</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="W41" t="n">
-        <v>1357.666194286149</v>
+        <v>1159.109798081508</v>
       </c>
       <c r="X41" t="n">
-        <v>1357.666194286149</v>
+        <v>795.6929149555422</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.666194286149</v>
+        <v>409.5458771591282</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>908.3382686120787</v>
+        <v>586.6515706736436</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9259943450423</v>
+        <v>586.6515706736436</v>
       </c>
       <c r="D42" t="n">
-        <v>718.9259943450423</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="E42" t="n">
-        <v>545.3627904664568</v>
+        <v>425.8714544346753</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G42" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H42" t="n">
         <v>115.9747045751594</v>
@@ -7490,25 +7490,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.4093011102587</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443597</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M42" t="n">
-        <v>873.3058632974213</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N42" t="n">
-        <v>1276.539627797432</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O42" t="n">
-        <v>1589.672661844326</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.19346494006</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7523,19 +7523,19 @@
         <v>1322.652080056737</v>
       </c>
       <c r="U42" t="n">
-        <v>1322.652080056737</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V42" t="n">
-        <v>1322.652080056737</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.253510787029</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="X42" t="n">
-        <v>1053.253510787029</v>
+        <v>839.9992362879182</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.253510787029</v>
+        <v>765.1874236005788</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="E43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="F43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="G43" t="n">
-        <v>1490.527291646717</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="H43" t="n">
-        <v>1490.527291646717</v>
+        <v>181.2168440820684</v>
       </c>
       <c r="I43" t="n">
-        <v>1490.527291646717</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y43" t="n">
-        <v>1660.279830822096</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>306.0886035251705</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="C44" t="n">
-        <v>306.0886035251705</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D44" t="n">
-        <v>306.0886035251705</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,10 +7648,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602965</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
         <v>525.5283691389718</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1357.666194286149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V44" t="n">
-        <v>1033.545200741551</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W44" t="n">
-        <v>692.2356413215846</v>
+        <v>1595.1735206571</v>
       </c>
       <c r="X44" t="n">
-        <v>692.2356413215846</v>
+        <v>1595.1735206571</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0886035251705</v>
+        <v>1209.026482860686</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>745.9717411220391</v>
+        <v>653.1150130127789</v>
       </c>
       <c r="C45" t="n">
-        <v>556.5594668550028</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="D45" t="n">
-        <v>395.7793506160345</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="E45" t="n">
-        <v>222.216146737449</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F45" t="n">
-        <v>222.216146737449</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G45" t="n">
-        <v>72.74711316068891</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H45" t="n">
         <v>34.31465285444516</v>
@@ -7757,22 +7757,22 @@
         <v>1448.884598007117</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775051</v>
+        <v>1296.864684676839</v>
       </c>
       <c r="U45" t="n">
-        <v>1234.878304775051</v>
+        <v>1057.291559004386</v>
       </c>
       <c r="V45" t="n">
-        <v>1234.878304775051</v>
+        <v>1057.291559004386</v>
       </c>
       <c r="W45" t="n">
-        <v>965.4797355053428</v>
+        <v>1057.291559004386</v>
       </c>
       <c r="X45" t="n">
-        <v>745.9717411220391</v>
+        <v>1057.291559004386</v>
       </c>
       <c r="Y45" t="n">
-        <v>745.9717411220391</v>
+        <v>831.6508659397141</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="C46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="D46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="E46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="F46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="G46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="H46" t="n">
-        <v>1415.189620196681</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="I46" t="n">
-        <v>1415.189620196681</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="J46" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>1715.732642722258</v>
+        <v>260.9755581809702</v>
       </c>
       <c r="R46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="S46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="U46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="V46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="W46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="X46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="Y46" t="n">
-        <v>1576.889614169534</v>
+        <v>109.6523243044814</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K12" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>44.62821923470698</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850218</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491699</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9017,7 +9017,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.9375340526869</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>103.1808494245549</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K18" t="n">
-        <v>8.646382090491642</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9254,16 +9254,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850222</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504032</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526877</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
         <v>8.64638209049167</v>
@@ -9968,13 +9968,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
-        <v>222.273549863045</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253762</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10205,13 +10205,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>242.5711743638666</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253762</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>44.62821923470651</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10445,10 +10445,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,10 +10682,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>10.68754955674478</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>103.1808494245544</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10907,13 +10907,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3045437566416</v>
+        <v>136.0819341662187</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11068,7 +11068,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>291.2847697033555</v>
+        <v>291.2847697033553</v>
       </c>
       <c r="N41" t="n">
         <v>283.4008070189657</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.580113947618</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11156,10 +11156,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P42" t="n">
-        <v>10.68754955674406</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253759</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315036</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286916</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
         <v>291.2847697033555</v>
@@ -23263,13 +23263,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.76544517947917</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
@@ -23278,7 +23278,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>192.5597826215197</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>108.4259137992516</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.2470364941416</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,10 +23393,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>266.7045835770116</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -23433,10 +23433,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>160.0829940331247</v>
+        <v>4.221542945028659</v>
       </c>
       <c r="I13" t="n">
-        <v>93.00459219947585</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
         <v>74.58429473553586</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
@@ -23506,16 +23506,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>54.08485193725051</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>216.8773565064078</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>28.9077031680032</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>99.84450525904087</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>95.43306496239862</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23718,7 +23718,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
-        <v>145.384260308628</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
         <v>217.1412728141684</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>170.4228817392105</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>178.8672507836808</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -23831,7 +23831,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -23867,10 +23867,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>221.4582282608805</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>3.422167563509817</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.6169206649681</v>
+        <v>97.22060117881547</v>
       </c>
       <c r="C19" t="n">
         <v>166.4571809719723</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553585</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23952,13 +23952,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.1005996173321</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.0156079746358</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>185.5090622027478</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
@@ -24034,10 +24034,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>230.3402354957477</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.7266632547376</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>125.6763136962144</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24129,10 +24129,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1826502507107</v>
+        <v>14.10223892236192</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
@@ -24177,13 +24177,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>215.2679301343995</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24208,16 +24208,16 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
@@ -24226,7 +24226,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027478</v>
+        <v>76.43958893005161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>285.1493488776389</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -24299,10 +24299,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>30.34225936650593</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>28.07046922283293</v>
       </c>
       <c r="I24" t="n">
         <v>80.84345120350704</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24417,16 +24417,16 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T25" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>168.5738200848355</v>
       </c>
       <c r="W25" t="n">
-        <v>159.2302957609865</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24451,16 +24451,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>198.8188010612363</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>305.0365284654804</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>184.188235604604</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -24539,10 +24539,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>59.25467753497742</v>
       </c>
     </row>
     <row r="28">
@@ -24621,7 +24621,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I28" t="n">
-        <v>145.433169315347</v>
+        <v>69.81503242326841</v>
       </c>
       <c r="J28" t="n">
         <v>74.58429473553585</v>
@@ -24648,7 +24648,7 @@
         <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
@@ -24657,7 +24657,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>165.4779332534541</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24666,7 +24666,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>185.5090622027478</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>30.85272192845194</v>
       </c>
       <c r="S29" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>116.1379738818798</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>2.415186338523341</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>121.8638641836779</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>221.7093479362394</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24903,10 +24903,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>141.5231359220898</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -24928,13 +24928,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>165.1426661379332</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>185.5090622027478</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.8195587440384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,19 +24998,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>208.9397306605973</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>97.29219807573524</v>
       </c>
     </row>
     <row r="34">
@@ -25089,13 +25089,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>160.0829940331247</v>
       </c>
       <c r="I34" t="n">
-        <v>145.433169315347</v>
+        <v>15.95059079865115</v>
       </c>
       <c r="J34" t="n">
         <v>74.58429473553585</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
         <v>224.1841888012565</v>
@@ -25131,7 +25131,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
-        <v>238.6212292805155</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25171,10 +25171,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>1.04782935454125</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
         <v>216.1639724458418</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>333.6797412315836</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25235,25 +25235,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350704</v>
+        <v>32.02819268407445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>252.3795734454826</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.7006619981111</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>29.00258270477585</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -25329,7 +25329,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>145.433169315347</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25368,7 +25368,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
         <v>337.7721596422273</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>16.81721828864397</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
@@ -25456,10 +25456,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>240.0694509913056</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>155.0963333855042</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
         <v>118.2964226714636</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.904708865483357</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>7.846470890097748</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25560,7 +25560,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25605,10 +25605,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="W40" t="n">
         <v>290.3107070893353</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.1246405337961</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
@@ -25642,10 +25642,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
         <v>185.5090622027478</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>253.0391924742405</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.28440464446538</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>149.3205915735596</v>
       </c>
     </row>
     <row r="43">
@@ -25800,16 +25800,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
-        <v>160.0829940331247</v>
+        <v>7.978571048150513</v>
       </c>
       <c r="I43" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7230498523039</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,13 +25873,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>102.4227008976181</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
@@ -25921,13 +25921,13 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>218.5429329812599</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>80.24828696828229</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>80.84345120350704</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>61.36651610277025</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,13 +26040,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.93959365311451</v>
+        <v>24.58419038258714</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>545840.6226604594</v>
+        <v>545840.6226604593</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>545840.6226604594</v>
+        <v>545840.6226604593</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>545840.6226604593</v>
+        <v>545840.6226604594</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>545840.6226604593</v>
+        <v>545840.6226604594</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>545840.6226604593</v>
+        <v>545840.6226604594</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>545840.6226604593</v>
+        <v>545840.6226604591</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>545840.6226604591</v>
+        <v>545840.6226604594</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>545840.6226604594</v>
+        <v>545840.6226604591</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>545840.6226604594</v>
+        <v>545840.6226604593</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>661448.9963823445</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="C2" t="n">
-        <v>661448.9963823444</v>
+        <v>661448.9963823446</v>
       </c>
       <c r="D2" t="n">
-        <v>661448.9963823446</v>
+        <v>661448.9963823447</v>
       </c>
       <c r="E2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="F2" t="n">
         <v>375693.1876893953</v>
       </c>
       <c r="G2" t="n">
-        <v>375693.1876893954</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="H2" t="n">
         <v>375693.1876893954</v>
@@ -26337,22 +26337,22 @@
         <v>375693.1876893953</v>
       </c>
       <c r="J2" t="n">
+        <v>375693.1876893951</v>
+      </c>
+      <c r="K2" t="n">
+        <v>375693.1876893951</v>
+      </c>
+      <c r="L2" t="n">
         <v>375693.1876893952</v>
       </c>
-      <c r="K2" t="n">
-        <v>375693.1876893953</v>
-      </c>
-      <c r="L2" t="n">
-        <v>375693.1876893951</v>
-      </c>
       <c r="M2" t="n">
-        <v>375693.1876893955</v>
+        <v>375693.1876893952</v>
       </c>
       <c r="N2" t="n">
         <v>375693.1876893952</v>
       </c>
       <c r="O2" t="n">
-        <v>375693.1876893952</v>
+        <v>375693.1876893953</v>
       </c>
       <c r="P2" t="n">
         <v>375693.1876893952</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.031184219755233e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="C4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="D4" t="n">
-        <v>424945.6323940752</v>
+        <v>424945.6323940753</v>
       </c>
       <c r="E4" t="n">
         <v>45238.1088129386</v>
       </c>
       <c r="F4" t="n">
-        <v>45238.1088129386</v>
+        <v>45238.10881293861</v>
       </c>
       <c r="G4" t="n">
         <v>45238.1088129386</v>
@@ -26441,7 +26441,7 @@
         <v>45238.1088129386</v>
       </c>
       <c r="J4" t="n">
-        <v>45238.10881293861</v>
+        <v>45238.1088129386</v>
       </c>
       <c r="K4" t="n">
         <v>45238.1088129386</v>
@@ -26459,7 +26459,7 @@
         <v>45238.1088129386</v>
       </c>
       <c r="P4" t="n">
-        <v>45238.10881293859</v>
+        <v>45238.1088129386</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="F5" t="n">
         <v>36091.33751189045</v>
@@ -26502,7 +26502,7 @@
         <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202875.7639882693</v>
+        <v>202831.1001462176</v>
       </c>
       <c r="C6" t="n">
-        <v>202875.7639882692</v>
+        <v>202831.1001462174</v>
       </c>
       <c r="D6" t="n">
-        <v>202875.7639882694</v>
+        <v>202831.1001462176</v>
       </c>
       <c r="E6" t="n">
-        <v>-202689.410452926</v>
+        <v>-212259.2679180765</v>
       </c>
       <c r="F6" t="n">
-        <v>294363.7413645663</v>
+        <v>284793.883899416</v>
       </c>
       <c r="G6" t="n">
-        <v>294363.7413645664</v>
+        <v>284793.8838994159</v>
       </c>
       <c r="H6" t="n">
-        <v>294363.7413645663</v>
+        <v>284793.883899416</v>
       </c>
       <c r="I6" t="n">
-        <v>294363.7413645663</v>
+        <v>284793.883899416</v>
       </c>
       <c r="J6" t="n">
-        <v>294363.7413645661</v>
+        <v>284793.8838994158</v>
       </c>
       <c r="K6" t="n">
-        <v>294363.7413645662</v>
+        <v>284793.8838994158</v>
       </c>
       <c r="L6" t="n">
-        <v>294363.741364566</v>
+        <v>284793.8838994159</v>
       </c>
       <c r="M6" t="n">
-        <v>187471.881990327</v>
+        <v>177902.0245251765</v>
       </c>
       <c r="N6" t="n">
-        <v>294363.7413645661</v>
+        <v>284793.8838994159</v>
       </c>
       <c r="O6" t="n">
-        <v>294363.7413645661</v>
+        <v>284793.883899416</v>
       </c>
       <c r="P6" t="n">
-        <v>294363.7413645661</v>
+        <v>284793.8838994159</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409235</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
@@ -26770,7 +26770,7 @@
         <v>459.2752909409236</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="N3" t="n">
         <v>459.2752909409237</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>428.9331606805645</v>
@@ -26822,7 +26822,7 @@
         <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805645</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.346708623213883e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146304</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O15" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,19 +32177,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R16" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376375</v>
+        <v>18.90875607376374</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773855</v>
+        <v>71.18074634773852</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522502</v>
+        <v>156.7051908522501</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.365167739336</v>
+        <v>291.3651677393358</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675595</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
-        <v>311.0863102573771</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685166</v>
+        <v>265.5049685685165</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
-        <v>115.9797045007751</v>
+        <v>115.979704500775</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146304</v>
+        <v>8.0823219541463</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433153</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420992</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357014</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.9298629953381</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O18" t="n">
-        <v>235.0406293176631</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943131</v>
+        <v>61.33491526943128</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742535</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.0649917864539043</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,28 +32384,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463239</v>
+        <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736778</v>
+        <v>129.8243252736777</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903045</v>
+        <v>126.7373929903044</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,19 +32414,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R19" t="n">
-        <v>37.2389440818657</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184165</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.04517461878107449</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33660,16 +33660,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L35" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N35" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O35" t="n">
         <v>311.0863102573771</v>
@@ -33678,16 +33678,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R35" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H36" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I36" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L36" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M36" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N36" t="n">
         <v>256.9298629953381</v>
@@ -33760,16 +33760,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S36" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T36" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33836,7 +33836,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R37" t="n">
         <v>37.2389440818657</v>
@@ -33848,7 +33848,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>90.08643512996257</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
         <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>323.3818477386931</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082175</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M15" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
-        <v>211.6305083063583</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151266</v>
+        <v>58.50448190323728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692043</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144093</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119663</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046434</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422085</v>
+        <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518972</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>378.678393487941</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
-        <v>407.3068328282941</v>
+        <v>323.3818477386936</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802593</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692043</v>
+        <v>76.00912912692037</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793121</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144093</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811783</v>
+        <v>277.1250097811784</v>
       </c>
       <c r="P23" t="n">
         <v>191.9262766422085</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518972</v>
@@ -36448,7 +36448,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>211.630508306359</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
@@ -36457,7 +36457,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
-        <v>283.3467609584859</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151265</v>
+        <v>78.80210640405862</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119694</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
@@ -36925,13 +36925,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>303.6443854593074</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151265</v>
+        <v>78.80210640405862</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>90.08643512996213</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
         <v>378.678393487941</v>
@@ -37165,10 +37165,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>231.5559236085354</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O35" t="n">
         <v>277.1250097811783</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082174</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K36" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
@@ -37399,13 +37399,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P36" t="n">
-        <v>35.8795990866009</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.45371493151265</v>
+        <v>58.50448190323682</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M37" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N37" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O38" t="n">
         <v>277.1250097811783</v>
@@ -37627,13 +37627,13 @@
         <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518972</v>
+        <v>181.5401500614744</v>
       </c>
       <c r="M39" t="n">
         <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>211.6305083063587</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867617</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4622543336424</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N41" t="n">
         <v>332.9626517459645</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002249</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082175</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -37876,10 +37876,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87959908660021</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151266</v>
+        <v>78.80210640405838</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119668</v>
+        <v>45.40379396119645</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046432</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
         <v>334.4622543336424</v>
